--- a/Area de proceso PPQA/HGPRD_0.1_2014_Herramienta de Gesti¾n QA PPQA_6_FINAL.xlsx
+++ b/Area de proceso PPQA/HGPRD_0.1_2014_Herramienta de Gesti¾n QA PPQA_6_FINAL.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="238">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -329,10 +329,6 @@
     <t>Hoja "Planificación"</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre del o los revisores separados por comas.
-</t>
-  </si>
-  <si>
     <t>Hoja "Seguimiento de NC"</t>
   </si>
   <si>
@@ -388,30 +384,9 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Fecha en que se inicia la revisión del mes</t>
-  </si>
-  <si>
-    <t>Mes que se está revisando</t>
-  </si>
-  <si>
-    <t>Fecha en que se finaliza la revisión del mes</t>
-  </si>
-  <si>
-    <t>Correlativo de revisión realizada</t>
-  </si>
-  <si>
-    <t>Tiempo Estimado en horas que durará la revisión</t>
-  </si>
-  <si>
     <t>Detalle adicional</t>
   </si>
   <si>
-    <t>Fecha Estimada de Inicio para la revisión del artefacto (dd/mm/yyyy)</t>
-  </si>
-  <si>
-    <t>Fecha Estimada de Fin para la revisión del artefacto (dd/mm/yyyy)</t>
-  </si>
-  <si>
     <t>Tiempo Real en horas que duró la revisión</t>
   </si>
   <si>
@@ -430,12 +405,6 @@
     <t>Entregable revisado</t>
   </si>
   <si>
-    <t>Nombre / código del proyecto</t>
-  </si>
-  <si>
-    <t>Nombre / código del proyecto, según hoja "Planificación"</t>
-  </si>
-  <si>
     <t>Código y nombre del artefacto revisado, según hoja "Planificación"</t>
   </si>
   <si>
@@ -482,12 +451,6 @@
   </si>
   <si>
     <t>Periodo dentro del ciclo de desarrollo al momento de la revisión (ver tabla "Fases")</t>
-  </si>
-  <si>
-    <t>Analista de procesos encargado de la elaboración o actualización del artefacto</t>
-  </si>
-  <si>
-    <t>Analista de procesos a cargo de la supervisión del artefacto</t>
   </si>
   <si>
     <t>Analista de procesos responsable del artefacto, según hoja "Planificación"</t>
@@ -516,13 +479,7 @@
     <t>Jefe de Fábrica:</t>
   </si>
   <si>
-    <t>Nombre del Jefe de Fábrica</t>
-  </si>
-  <si>
     <t>Gestor de Calidad</t>
-  </si>
-  <si>
-    <t>Nombre del Gestor de Calidad</t>
   </si>
   <si>
     <t>Fast Track</t>
@@ -913,7 +870,25 @@
     <t>Creative CheeseGame</t>
   </si>
   <si>
-    <t>Fecha Efectiva: 16/06/2015</t>
+    <t>Larry Tena</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>001-2015</t>
+  </si>
+  <si>
+    <t>Vamos Ya</t>
+  </si>
+  <si>
+    <t>Analista de procesos encargado de la elaboración y actualización del proyecto</t>
+  </si>
+  <si>
+    <t>Fecha Efectiva: 13/06/2015</t>
+  </si>
+  <si>
+    <t>Agencia de Viajes</t>
   </si>
 </sst>
 </file>
@@ -926,7 +901,7 @@
     <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_)"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="65">
+  <fonts count="64">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1292,11 +1267,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2049,7 +2019,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2496,16 +2466,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="62" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="61" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="8" fillId="24" borderId="10" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="29" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="60" fillId="24" borderId="11" xfId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2544,7 +2511,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="39" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -2575,9 +2542,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="61" fillId="30" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2613,13 +2577,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2629,14 +2603,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2686,30 +2681,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="32" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2719,26 +2709,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="24" borderId="34" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2751,6 +2721,34 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="56" fillId="25" borderId="10" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2762,18 +2760,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="33" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="24" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="25" borderId="10" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -2802,22 +2788,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="24" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="10" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="11" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="29" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="10" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2830,11 +2800,8 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="40" xfId="32" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="11" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -3074,10 +3041,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3817,11 +3784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="87094784"/>
-        <c:axId val="88101632"/>
+        <c:axId val="88132224"/>
+        <c:axId val="88475520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87094784"/>
+        <c:axId val="88132224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3856,7 +3823,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88101632"/>
+        <c:crossAx val="88475520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3866,7 +3833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88101632"/>
+        <c:axId val="88475520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3911,7 +3878,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87094784"/>
+        <c:crossAx val="88132224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4366,12 +4333,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="88811008"/>
-        <c:axId val="88812928"/>
+        <c:axId val="88523904"/>
+        <c:axId val="88525824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="88811008"/>
+        <c:axId val="88523904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,7 +4412,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88812928"/>
+        <c:crossAx val="88525824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4455,7 +4422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88812928"/>
+        <c:axId val="88525824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4539,7 +4506,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88811008"/>
+        <c:crossAx val="88523904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5392,7 +5359,7 @@
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="65"/>
       <c r="B2" s="177" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="177"/>
       <c r="D2" s="177"/>
@@ -5416,25 +5383,25 @@
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A4" s="65"/>
       <c r="B4" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="D4" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="E4" s="68" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>65</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="69" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" s="69" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="65"/>
     </row>
@@ -5450,16 +5417,16 @@
         <v>41832</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G5" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I5" s="65"/>
     </row>
@@ -5532,8 +5499,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5549,23 +5516,23 @@
     <row r="1" spans="1:8" s="62" customFormat="1" ht="12" customHeight="1"/>
     <row r="2" spans="1:8" s="62" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="39"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="190" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="190"/>
-      <c r="E2" s="191"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="198" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="198"/>
+      <c r="E2" s="199"/>
     </row>
     <row r="3" spans="1:8" s="62" customFormat="1">
       <c r="A3" s="39"/>
-      <c r="B3" s="239" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" s="197" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="198"/>
-      <c r="E3" s="199"/>
+      <c r="B3" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="205" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="206"/>
+      <c r="E3" s="207"/>
     </row>
     <row r="4" spans="1:8" s="62" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="39"/>
@@ -5577,12 +5544,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="39"/>
-      <c r="B5" s="192" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="193"/>
-      <c r="E5" s="194"/>
+      <c r="B5" s="200" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="202"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="39"/>
@@ -5605,10 +5572,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="195" t="s">
+      <c r="D8" s="203" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="196"/>
+      <c r="E8" s="204"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="39"/>
@@ -5620,7 +5587,7 @@
     <row r="10" spans="1:8" ht="12" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="93" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="94" t="s">
@@ -5638,7 +5605,7 @@
     <row r="12" spans="1:8" ht="12" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="97" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="94" t="s">
@@ -5656,11 +5623,11 @@
     <row r="14" spans="1:8" ht="12" customHeight="1">
       <c r="A14" s="37"/>
       <c r="B14" s="98" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="94" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E14" s="94"/>
     </row>
@@ -5674,7 +5641,7 @@
     <row r="16" spans="1:8" ht="12" customHeight="1">
       <c r="A16" s="37"/>
       <c r="B16" s="99" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="94" t="s">
@@ -5694,62 +5661,62 @@
       <c r="A18" s="37"/>
     </row>
     <row r="19" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="184" t="s">
+      <c r="B19" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="185"/>
-      <c r="D19" s="185"/>
-      <c r="E19" s="186"/>
+      <c r="C19" s="193"/>
+      <c r="D19" s="193"/>
+      <c r="E19" s="194"/>
     </row>
     <row r="20" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="187" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="188"/>
-      <c r="E20" s="189"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
     </row>
     <row r="21" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="200" t="s">
+      <c r="C21" s="183" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="201"/>
-      <c r="E21" s="202"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
     </row>
     <row r="22" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="200" t="s">
+      <c r="C22" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="202"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="185"/>
     </row>
     <row r="23" spans="1:8" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="200" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="201"/>
-      <c r="E23" s="202"/>
+      <c r="C23" s="183" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="185"/>
     </row>
     <row r="24" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="200" t="s">
+      <c r="C24" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="201"/>
-      <c r="E24" s="202"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="185"/>
     </row>
     <row r="25" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="60"/>
@@ -5762,57 +5729,57 @@
       <c r="B26" s="51"/>
     </row>
     <row r="27" spans="1:8" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="184" t="s">
+      <c r="B27" s="192" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="185"/>
-      <c r="D27" s="185"/>
-      <c r="E27" s="186"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="194"/>
     </row>
     <row r="28" spans="1:8" s="58" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="187" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="188"/>
-      <c r="E28" s="189"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="37"/>
-      <c r="B29" s="203" t="s">
+      <c r="B29" s="189" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="205"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="191"/>
       <c r="F29" s="58"/>
       <c r="G29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="37"/>
       <c r="B30" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="178" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="179"/>
-      <c r="E30" s="180"/>
+        <v>100</v>
+      </c>
+      <c r="C30" s="179" t="s">
+        <v>231</v>
+      </c>
+      <c r="D30" s="180"/>
+      <c r="E30" s="181"/>
       <c r="F30" s="58"/>
       <c r="G30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="37"/>
       <c r="B31" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="178" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="179"/>
-      <c r="E31" s="180"/>
+        <v>101</v>
+      </c>
+      <c r="C31" s="179" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" s="180"/>
+      <c r="E31" s="181"/>
       <c r="F31" s="58"/>
       <c r="G31" s="58"/>
     </row>
@@ -5821,11 +5788,11 @@
       <c r="B32" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="178" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="180"/>
+      <c r="C32" s="179" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" s="180"/>
+      <c r="E32" s="181"/>
       <c r="F32" s="58"/>
       <c r="G32" s="58"/>
     </row>
@@ -5834,11 +5801,11 @@
       <c r="B33" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="178" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180"/>
+      <c r="C33" s="239">
+        <v>42168</v>
+      </c>
+      <c r="D33" s="180"/>
+      <c r="E33" s="181"/>
       <c r="F33" s="58"/>
       <c r="G33" s="58"/>
     </row>
@@ -5847,174 +5814,174 @@
       <c r="B34" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="178" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="179"/>
-      <c r="E34" s="180"/>
+      <c r="C34" s="179" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="180"/>
+      <c r="E34" s="181"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="37"/>
       <c r="B35" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
+      <c r="C35" s="239">
+        <v>42173</v>
+      </c>
+      <c r="D35" s="180"/>
+      <c r="E35" s="181"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="37"/>
-      <c r="B36" s="203" t="s">
+      <c r="B36" s="189" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="204"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="205"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="191"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="37"/>
       <c r="B37" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="178" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="179"/>
-      <c r="E37" s="180"/>
+      <c r="C37" s="179" t="s">
+        <v>233</v>
+      </c>
+      <c r="D37" s="180"/>
+      <c r="E37" s="181"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="37"/>
       <c r="B38" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="178" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="179"/>
-      <c r="E38" s="180"/>
+      <c r="C38" s="179" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="180"/>
+      <c r="E38" s="181"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="37"/>
       <c r="B39" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="178" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="179"/>
-      <c r="E39" s="180"/>
+        <v>91</v>
+      </c>
+      <c r="C39" s="179" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="180"/>
+      <c r="E39" s="181"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="37"/>
       <c r="B40" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" s="178" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" s="179"/>
-      <c r="E40" s="180"/>
+        <v>133</v>
+      </c>
+      <c r="C40" s="179" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="180"/>
+      <c r="E40" s="181"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="37"/>
       <c r="B41" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="178" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="179"/>
-      <c r="E41" s="180"/>
+      <c r="C41" s="179" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="180"/>
+      <c r="E41" s="181"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="37"/>
       <c r="B42" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="178" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="179"/>
-      <c r="E42" s="180"/>
+      <c r="C42" s="179" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="180"/>
+      <c r="E42" s="181"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="37"/>
       <c r="B43" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="178" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="179"/>
-      <c r="E43" s="180"/>
+        <v>55</v>
+      </c>
+      <c r="C43" s="239">
+        <v>42168</v>
+      </c>
+      <c r="D43" s="180"/>
+      <c r="E43" s="181"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="37"/>
       <c r="B44" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="178" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="179"/>
-      <c r="E44" s="180"/>
+        <v>56</v>
+      </c>
+      <c r="C44" s="239">
+        <v>42173</v>
+      </c>
+      <c r="D44" s="180"/>
+      <c r="E44" s="181"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="37"/>
       <c r="B45" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="178" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="179"/>
-      <c r="E45" s="180"/>
+      <c r="C45" s="179" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="180"/>
+      <c r="E45" s="181"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="178" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="179"/>
-      <c r="E46" s="180"/>
+        <v>57</v>
+      </c>
+      <c r="C46" s="179" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="180"/>
+      <c r="E46" s="181"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="178" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="179"/>
-      <c r="E47" s="180"/>
+        <v>58</v>
+      </c>
+      <c r="C47" s="179" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="180"/>
+      <c r="E47" s="181"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="178" t="s">
-        <v>79</v>
-      </c>
-      <c r="D48" s="179"/>
-      <c r="E48" s="180"/>
+      <c r="C48" s="179" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="180"/>
+      <c r="E48" s="181"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="37"/>
       <c r="B49" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="179"/>
-      <c r="E49" s="180"/>
+        <v>135</v>
+      </c>
+      <c r="C49" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="180"/>
+      <c r="E49" s="181"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="58"/>
@@ -6047,23 +6014,23 @@
       <c r="M51" s="38"/>
     </row>
     <row r="52" spans="1:13" s="58" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="185"/>
-      <c r="D52" s="185"/>
-      <c r="E52" s="186"/>
+      <c r="B52" s="192" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="193"/>
+      <c r="D52" s="193"/>
+      <c r="E52" s="194"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="58"/>
       <c r="B53" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="187" t="s">
+      <c r="C53" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="188"/>
-      <c r="E53" s="189"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="197"/>
       <c r="F53" s="58"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
@@ -6076,134 +6043,134 @@
     <row r="54" spans="1:13" ht="16.5" customHeight="1">
       <c r="A54" s="37"/>
       <c r="B54" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="C54" s="178" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54" s="179"/>
-      <c r="E54" s="180"/>
+        <v>136</v>
+      </c>
+      <c r="C54" s="179" t="s">
+        <v>233</v>
+      </c>
+      <c r="D54" s="180"/>
+      <c r="E54" s="181"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="37"/>
       <c r="B55" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="178" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="179"/>
-      <c r="E55" s="180"/>
+        <v>109</v>
+      </c>
+      <c r="C55" s="179" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="180"/>
+      <c r="E55" s="181"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="37"/>
       <c r="B56" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="178" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="179"/>
-      <c r="E56" s="180"/>
+        <v>76</v>
+      </c>
+      <c r="C56" s="179" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="180"/>
+      <c r="E56" s="181"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="37"/>
       <c r="B57" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="178" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="182"/>
-      <c r="E57" s="183"/>
+        <v>99</v>
+      </c>
+      <c r="C57" s="179" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="37"/>
       <c r="B58" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="178" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58" s="182"/>
-      <c r="E58" s="183"/>
+      <c r="C58" s="179" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="186"/>
+      <c r="E58" s="187"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="37"/>
       <c r="B59" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C59" s="178" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="182"/>
-      <c r="E59" s="183"/>
+        <v>78</v>
+      </c>
+      <c r="C59" s="179" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="186"/>
+      <c r="E59" s="187"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="37"/>
       <c r="B60" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="178" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="182"/>
-      <c r="E60" s="183"/>
+      <c r="C60" s="179" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="186"/>
+      <c r="E60" s="187"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="37"/>
       <c r="B61" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="181" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="182"/>
-      <c r="E61" s="183"/>
+        <v>53</v>
+      </c>
+      <c r="C61" s="188" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="186"/>
+      <c r="E61" s="187"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="37"/>
       <c r="B62" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="178" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="182"/>
-      <c r="E62" s="183"/>
+      <c r="C62" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="186"/>
+      <c r="E62" s="187"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="37"/>
       <c r="B63" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="181" t="s">
-        <v>60</v>
-      </c>
-      <c r="D63" s="182"/>
-      <c r="E63" s="183"/>
+      <c r="C63" s="188" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="186"/>
+      <c r="E63" s="187"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="37"/>
       <c r="B64" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="181" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="182"/>
-      <c r="E64" s="183"/>
+      <c r="C64" s="188" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="186"/>
+      <c r="E64" s="187"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="37"/>
       <c r="B65" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="178" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="179"/>
-      <c r="E65" s="180"/>
+        <v>88</v>
+      </c>
+      <c r="C65" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="180"/>
+      <c r="E65" s="181"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="37"/>
@@ -6214,200 +6181,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="37"/>
-      <c r="B67" s="207"/>
-      <c r="C67" s="207"/>
-      <c r="D67" s="207"/>
-      <c r="E67" s="207"/>
+      <c r="B67" s="182"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="182"/>
+      <c r="E67" s="182"/>
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
       <c r="H67" s="57"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="37"/>
-      <c r="B68" s="206"/>
-      <c r="C68" s="206"/>
-      <c r="D68" s="206"/>
-      <c r="E68" s="206"/>
+      <c r="B68" s="178"/>
+      <c r="C68" s="178"/>
+      <c r="D68" s="178"/>
+      <c r="E68" s="178"/>
       <c r="F68" s="57"/>
       <c r="G68" s="57"/>
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="37"/>
-      <c r="B69" s="206"/>
-      <c r="C69" s="206"/>
-      <c r="D69" s="206"/>
-      <c r="E69" s="206"/>
+      <c r="B69" s="178"/>
+      <c r="C69" s="178"/>
+      <c r="D69" s="178"/>
+      <c r="E69" s="178"/>
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
       <c r="H69" s="57"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="37"/>
-      <c r="B70" s="206"/>
-      <c r="C70" s="206"/>
-      <c r="D70" s="206"/>
-      <c r="E70" s="206"/>
+      <c r="B70" s="178"/>
+      <c r="C70" s="178"/>
+      <c r="D70" s="178"/>
+      <c r="E70" s="178"/>
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="37"/>
-      <c r="B71" s="206"/>
-      <c r="C71" s="206"/>
-      <c r="D71" s="206"/>
-      <c r="E71" s="206"/>
+      <c r="B71" s="178"/>
+      <c r="C71" s="178"/>
+      <c r="D71" s="178"/>
+      <c r="E71" s="178"/>
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
       <c r="H71" s="57"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="37"/>
-      <c r="B72" s="206"/>
-      <c r="C72" s="206"/>
-      <c r="D72" s="206"/>
-      <c r="E72" s="206"/>
+      <c r="B72" s="178"/>
+      <c r="C72" s="178"/>
+      <c r="D72" s="178"/>
+      <c r="E72" s="178"/>
       <c r="F72" s="57"/>
       <c r="G72" s="57"/>
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="42"/>
-      <c r="B73" s="206"/>
-      <c r="C73" s="206"/>
-      <c r="D73" s="206"/>
-      <c r="E73" s="206"/>
+      <c r="B73" s="178"/>
+      <c r="C73" s="178"/>
+      <c r="D73" s="178"/>
+      <c r="E73" s="178"/>
       <c r="F73" s="57"/>
       <c r="G73" s="57"/>
       <c r="H73" s="57"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="37"/>
-      <c r="B74" s="206"/>
-      <c r="C74" s="206"/>
-      <c r="D74" s="206"/>
-      <c r="E74" s="206"/>
+      <c r="B74" s="178"/>
+      <c r="C74" s="178"/>
+      <c r="D74" s="178"/>
+      <c r="E74" s="178"/>
       <c r="F74" s="57"/>
       <c r="G74" s="57"/>
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="37"/>
-      <c r="B75" s="206"/>
-      <c r="C75" s="206"/>
-      <c r="D75" s="206"/>
-      <c r="E75" s="206"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="178"/>
+      <c r="D75" s="178"/>
+      <c r="E75" s="178"/>
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
       <c r="H75" s="57"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="37"/>
-      <c r="B76" s="206"/>
-      <c r="C76" s="206"/>
-      <c r="D76" s="206"/>
-      <c r="E76" s="206"/>
+      <c r="B76" s="178"/>
+      <c r="C76" s="178"/>
+      <c r="D76" s="178"/>
+      <c r="E76" s="178"/>
       <c r="F76" s="57"/>
       <c r="G76" s="57"/>
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="37"/>
-      <c r="B77" s="206"/>
-      <c r="C77" s="206"/>
-      <c r="D77" s="206"/>
-      <c r="E77" s="206"/>
+      <c r="B77" s="178"/>
+      <c r="C77" s="178"/>
+      <c r="D77" s="178"/>
+      <c r="E77" s="178"/>
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
       <c r="H77" s="57"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="37"/>
-      <c r="B78" s="206"/>
-      <c r="C78" s="206"/>
-      <c r="D78" s="206"/>
-      <c r="E78" s="206"/>
+      <c r="B78" s="178"/>
+      <c r="C78" s="178"/>
+      <c r="D78" s="178"/>
+      <c r="E78" s="178"/>
       <c r="F78" s="57"/>
       <c r="G78" s="57"/>
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="42"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="206"/>
-      <c r="D79" s="206"/>
-      <c r="E79" s="206"/>
+      <c r="B79" s="178"/>
+      <c r="C79" s="178"/>
+      <c r="D79" s="178"/>
+      <c r="E79" s="178"/>
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
       <c r="H79" s="57"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="42"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="206"/>
-      <c r="D80" s="206"/>
-      <c r="E80" s="206"/>
+      <c r="B80" s="178"/>
+      <c r="C80" s="178"/>
+      <c r="D80" s="178"/>
+      <c r="E80" s="178"/>
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="42"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="206"/>
-      <c r="D81" s="206"/>
-      <c r="E81" s="206"/>
+      <c r="B81" s="178"/>
+      <c r="C81" s="178"/>
+      <c r="D81" s="178"/>
+      <c r="E81" s="178"/>
       <c r="F81" s="57"/>
       <c r="G81" s="57"/>
       <c r="H81" s="57"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="42"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="206"/>
-      <c r="D82" s="206"/>
-      <c r="E82" s="206"/>
+      <c r="B82" s="178"/>
+      <c r="C82" s="178"/>
+      <c r="D82" s="178"/>
+      <c r="E82" s="178"/>
       <c r="F82" s="57"/>
       <c r="G82" s="57"/>
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="42"/>
-      <c r="B83" s="206"/>
-      <c r="C83" s="206"/>
-      <c r="D83" s="206"/>
-      <c r="E83" s="206"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="178"/>
+      <c r="D83" s="178"/>
+      <c r="E83" s="178"/>
       <c r="F83" s="57"/>
       <c r="G83" s="57"/>
       <c r="H83" s="57"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="42"/>
-      <c r="B84" s="206"/>
-      <c r="C84" s="206"/>
-      <c r="D84" s="206"/>
-      <c r="E84" s="206"/>
+      <c r="B84" s="178"/>
+      <c r="C84" s="178"/>
+      <c r="D84" s="178"/>
+      <c r="E84" s="178"/>
       <c r="F84" s="57"/>
       <c r="G84" s="57"/>
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="42"/>
-      <c r="B85" s="206"/>
-      <c r="C85" s="206"/>
-      <c r="D85" s="206"/>
-      <c r="E85" s="206"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="178"/>
+      <c r="D85" s="178"/>
+      <c r="E85" s="178"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
       <c r="H85" s="57"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="42"/>
-      <c r="B86" s="206"/>
-      <c r="C86" s="206"/>
-      <c r="D86" s="206"/>
-      <c r="E86" s="206"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="178"/>
+      <c r="D86" s="178"/>
+      <c r="E86" s="178"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
       <c r="H86" s="57"/>
@@ -6420,27 +6387,36 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C60:E60"/>
@@ -6457,36 +6433,27 @@
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6503,8 +6470,8 @@
   </sheetPr>
   <dimension ref="A3:Y45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E20" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -6525,70 +6492,70 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:25" ht="18" customHeight="1">
-      <c r="B3" s="213" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="213"/>
-      <c r="K3" s="213"/>
-      <c r="L3" s="213"/>
-      <c r="M3" s="213"/>
-      <c r="N3" s="213"/>
+      <c r="B3" s="211" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211"/>
     </row>
     <row r="4" spans="2:25" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1"/>
     <row r="6" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="208" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="209"/>
-      <c r="D6" s="210" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" s="211"/>
-      <c r="F6" s="212"/>
-      <c r="G6" s="214"/>
-      <c r="H6" s="214"/>
+      <c r="B6" s="213" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="214"/>
+      <c r="D6" s="208" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="209"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="208" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="209"/>
-      <c r="D7" s="210" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="211"/>
-      <c r="F7" s="212"/>
+      <c r="B7" s="213" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="214"/>
+      <c r="D7" s="208" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="209"/>
+      <c r="F7" s="210"/>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="208" t="s">
+      <c r="B8" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="209"/>
-      <c r="D8" s="210" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="211"/>
-      <c r="F8" s="212"/>
+      <c r="C8" s="214"/>
+      <c r="D8" s="208" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
       <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="2:25" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="213" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="156">
+      <c r="C9" s="214"/>
+      <c r="D9" s="155">
         <v>42168</v>
       </c>
       <c r="E9" s="106" t="s">
@@ -6597,17 +6564,17 @@
       <c r="F9" s="143">
         <v>42171</v>
       </c>
-      <c r="H9" s="157"/>
+      <c r="H9" s="156"/>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="2:25" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="208" t="s">
+      <c r="B10" s="213" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="209"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="212"/>
+      <c r="C10" s="214"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="210"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="2:25" s="20" customFormat="1" ht="15" customHeight="1">
@@ -6622,16 +6589,16 @@
         <v>31</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>22</v>
@@ -6655,7 +6622,7 @@
         <v>14</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="24">
@@ -6663,21 +6630,21 @@
         <v>1</v>
       </c>
       <c r="C13" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="148" t="s">
-        <v>193</v>
+        <v>141</v>
+      </c>
+      <c r="D13" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="147" t="s">
+        <v>179</v>
       </c>
       <c r="F13" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G13" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="156">
+        <v>156</v>
+      </c>
+      <c r="H13" s="155">
         <v>42168</v>
       </c>
       <c r="I13" s="143">
@@ -6687,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="144">
-        <v>41979</v>
+        <v>42168</v>
       </c>
       <c r="L13" s="144">
         <v>42208</v>
@@ -6702,21 +6669,21 @@
         <v>2</v>
       </c>
       <c r="C14" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="148" t="s">
-        <v>194</v>
+        <v>141</v>
+      </c>
+      <c r="D14" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="147" t="s">
+        <v>180</v>
       </c>
       <c r="F14" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G14" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="156">
+        <v>156</v>
+      </c>
+      <c r="H14" s="155">
         <v>42168</v>
       </c>
       <c r="I14" s="143">
@@ -6725,8 +6692,8 @@
       <c r="J14" s="145">
         <v>2</v>
       </c>
-      <c r="K14" s="146">
-        <v>41979</v>
+      <c r="K14" s="144">
+        <v>42168</v>
       </c>
       <c r="L14" s="144">
         <v>42208</v>
@@ -6741,21 +6708,21 @@
         <v>3</v>
       </c>
       <c r="C15" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="148" t="s">
-        <v>195</v>
+        <v>141</v>
+      </c>
+      <c r="D15" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="147" t="s">
+        <v>181</v>
       </c>
       <c r="F15" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G15" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H15" s="156">
+        <v>156</v>
+      </c>
+      <c r="H15" s="155">
         <v>42168</v>
       </c>
       <c r="I15" s="143">
@@ -6764,8 +6731,8 @@
       <c r="J15" s="145">
         <v>1.5</v>
       </c>
-      <c r="K15" s="146">
-        <v>41979</v>
+      <c r="K15" s="144">
+        <v>42168</v>
       </c>
       <c r="L15" s="144">
         <v>42208</v>
@@ -6780,21 +6747,21 @@
         <v>4</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E16" s="148" t="s">
-        <v>190</v>
+        <v>141</v>
+      </c>
+      <c r="D16" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="147" t="s">
+        <v>176</v>
       </c>
       <c r="F16" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G16" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="156">
+        <v>156</v>
+      </c>
+      <c r="H16" s="155">
         <v>42168</v>
       </c>
       <c r="I16" s="143">
@@ -6803,8 +6770,8 @@
       <c r="J16" s="145">
         <v>2</v>
       </c>
-      <c r="K16" s="146">
-        <v>41980</v>
+      <c r="K16" s="144">
+        <v>42168</v>
       </c>
       <c r="L16" s="144">
         <v>42208</v>
@@ -6819,21 +6786,21 @@
         <v>5</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="148" t="s">
-        <v>191</v>
+        <v>141</v>
+      </c>
+      <c r="D17" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="147" t="s">
+        <v>177</v>
       </c>
       <c r="F17" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G17" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H17" s="156">
+        <v>156</v>
+      </c>
+      <c r="H17" s="155">
         <v>42168</v>
       </c>
       <c r="I17" s="143">
@@ -6842,8 +6809,8 @@
       <c r="J17" s="145">
         <v>2</v>
       </c>
-      <c r="K17" s="146">
-        <v>41981</v>
+      <c r="K17" s="144">
+        <v>42168</v>
       </c>
       <c r="L17" s="144">
         <v>42208</v>
@@ -6858,21 +6825,21 @@
         <v>6</v>
       </c>
       <c r="C18" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="148" t="s">
-        <v>196</v>
+        <v>141</v>
+      </c>
+      <c r="D18" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="147" t="s">
+        <v>182</v>
       </c>
       <c r="F18" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G18" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="156">
+        <v>156</v>
+      </c>
+      <c r="H18" s="155">
         <v>42168</v>
       </c>
       <c r="I18" s="143">
@@ -6881,8 +6848,8 @@
       <c r="J18" s="145">
         <v>3</v>
       </c>
-      <c r="K18" s="146">
-        <v>41981</v>
+      <c r="K18" s="144">
+        <v>42168</v>
       </c>
       <c r="L18" s="144">
         <v>42208</v>
@@ -6897,21 +6864,21 @@
         <v>7</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="147" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="148" t="s">
-        <v>197</v>
+        <v>141</v>
+      </c>
+      <c r="D19" s="146" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="147" t="s">
+        <v>183</v>
       </c>
       <c r="F19" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G19" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="156">
+        <v>156</v>
+      </c>
+      <c r="H19" s="155">
         <v>42168</v>
       </c>
       <c r="I19" s="143">
@@ -6920,8 +6887,8 @@
       <c r="J19" s="145">
         <v>3</v>
       </c>
-      <c r="K19" s="146">
-        <v>41982</v>
+      <c r="K19" s="144">
+        <v>42168</v>
       </c>
       <c r="L19" s="144">
         <v>42208</v>
@@ -6936,21 +6903,21 @@
         <v>8</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" s="147" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="149" t="s">
-        <v>198</v>
+        <v>141</v>
+      </c>
+      <c r="D20" s="146" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="148" t="s">
+        <v>184</v>
       </c>
       <c r="F20" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G20" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H20" s="156">
+        <v>156</v>
+      </c>
+      <c r="H20" s="155">
         <v>42168</v>
       </c>
       <c r="I20" s="143">
@@ -6959,8 +6926,8 @@
       <c r="J20" s="145">
         <v>1</v>
       </c>
-      <c r="K20" s="146">
-        <v>41979</v>
+      <c r="K20" s="144">
+        <v>42168</v>
       </c>
       <c r="L20" s="144">
         <v>42208</v>
@@ -6975,21 +6942,21 @@
         <v>9</v>
       </c>
       <c r="C21" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="151" t="s">
-        <v>199</v>
+        <v>141</v>
+      </c>
+      <c r="D21" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="150" t="s">
+        <v>185</v>
       </c>
       <c r="F21" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G21" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="156">
+        <v>156</v>
+      </c>
+      <c r="H21" s="155">
         <v>42168</v>
       </c>
       <c r="I21" s="143">
@@ -6998,8 +6965,8 @@
       <c r="J21" s="145">
         <v>1</v>
       </c>
-      <c r="K21" s="146">
-        <v>41979</v>
+      <c r="K21" s="144">
+        <v>42168</v>
       </c>
       <c r="L21" s="144">
         <v>42208</v>
@@ -7014,21 +6981,21 @@
         <v>10</v>
       </c>
       <c r="C22" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="151" t="s">
-        <v>200</v>
+        <v>141</v>
+      </c>
+      <c r="D22" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E22" s="150" t="s">
+        <v>186</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G22" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H22" s="156">
+        <v>156</v>
+      </c>
+      <c r="H22" s="155">
         <v>42168</v>
       </c>
       <c r="I22" s="143">
@@ -7037,8 +7004,8 @@
       <c r="J22" s="145">
         <v>1</v>
       </c>
-      <c r="K22" s="146">
-        <v>41979</v>
+      <c r="K22" s="144">
+        <v>42168</v>
       </c>
       <c r="L22" s="144">
         <v>42208</v>
@@ -7053,21 +7020,21 @@
         <v>11</v>
       </c>
       <c r="C23" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="151" t="s">
-        <v>201</v>
+        <v>141</v>
+      </c>
+      <c r="D23" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="150" t="s">
+        <v>187</v>
       </c>
       <c r="F23" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G23" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="156">
+        <v>156</v>
+      </c>
+      <c r="H23" s="155">
         <v>42168</v>
       </c>
       <c r="I23" s="143">
@@ -7076,8 +7043,8 @@
       <c r="J23" s="145">
         <v>1.5</v>
       </c>
-      <c r="K23" s="146">
-        <v>41979</v>
+      <c r="K23" s="144">
+        <v>42168</v>
       </c>
       <c r="L23" s="144">
         <v>42208</v>
@@ -7092,21 +7059,21 @@
         <v>12</v>
       </c>
       <c r="C24" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="151" t="s">
-        <v>202</v>
+        <v>141</v>
+      </c>
+      <c r="D24" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="150" t="s">
+        <v>188</v>
       </c>
       <c r="F24" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G24" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="156">
+        <v>156</v>
+      </c>
+      <c r="H24" s="155">
         <v>42168</v>
       </c>
       <c r="I24" s="143">
@@ -7115,8 +7082,8 @@
       <c r="J24" s="145">
         <v>1</v>
       </c>
-      <c r="K24" s="146">
-        <v>41979</v>
+      <c r="K24" s="144">
+        <v>42168</v>
       </c>
       <c r="L24" s="144">
         <v>42208</v>
@@ -7131,21 +7098,21 @@
         <v>13</v>
       </c>
       <c r="C25" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="150" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="152" t="s">
-        <v>203</v>
+        <v>141</v>
+      </c>
+      <c r="D25" s="149" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="151" t="s">
+        <v>189</v>
       </c>
       <c r="F25" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G25" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H25" s="156">
+        <v>156</v>
+      </c>
+      <c r="H25" s="155">
         <v>42168</v>
       </c>
       <c r="I25" s="143">
@@ -7154,8 +7121,8 @@
       <c r="J25" s="145">
         <v>2</v>
       </c>
-      <c r="K25" s="146">
-        <v>41979</v>
+      <c r="K25" s="144">
+        <v>42168</v>
       </c>
       <c r="L25" s="144">
         <v>42208</v>
@@ -7170,21 +7137,21 @@
         <v>14</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="154" t="s">
-        <v>177</v>
+        <v>141</v>
+      </c>
+      <c r="D26" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>163</v>
       </c>
       <c r="F26" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G26" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H26" s="156">
+        <v>156</v>
+      </c>
+      <c r="H26" s="155">
         <v>42168</v>
       </c>
       <c r="I26" s="143">
@@ -7193,8 +7160,8 @@
       <c r="J26" s="145">
         <v>1</v>
       </c>
-      <c r="K26" s="146">
-        <v>41979</v>
+      <c r="K26" s="144">
+        <v>42168</v>
       </c>
       <c r="L26" s="144">
         <v>42208</v>
@@ -7209,21 +7176,21 @@
         <v>15</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="155" t="s">
-        <v>176</v>
+        <v>141</v>
+      </c>
+      <c r="D27" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="154" t="s">
+        <v>162</v>
       </c>
       <c r="F27" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G27" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="156">
+        <v>156</v>
+      </c>
+      <c r="H27" s="155">
         <v>42168</v>
       </c>
       <c r="I27" s="143">
@@ -7232,8 +7199,8 @@
       <c r="J27" s="145">
         <v>2</v>
       </c>
-      <c r="K27" s="146">
-        <v>41979</v>
+      <c r="K27" s="144">
+        <v>42168</v>
       </c>
       <c r="L27" s="144">
         <v>42208</v>
@@ -7248,21 +7215,21 @@
         <v>16</v>
       </c>
       <c r="C28" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="154" t="s">
-        <v>180</v>
+        <v>141</v>
+      </c>
+      <c r="D28" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>166</v>
       </c>
       <c r="F28" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G28" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H28" s="156">
+        <v>156</v>
+      </c>
+      <c r="H28" s="155">
         <v>42168</v>
       </c>
       <c r="I28" s="143">
@@ -7271,8 +7238,8 @@
       <c r="J28" s="145">
         <v>2.5</v>
       </c>
-      <c r="K28" s="146">
-        <v>41979</v>
+      <c r="K28" s="144">
+        <v>42168</v>
       </c>
       <c r="L28" s="144">
         <v>42208</v>
@@ -7288,21 +7255,21 @@
         <v>17</v>
       </c>
       <c r="C29" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" s="149" t="s">
-        <v>178</v>
+        <v>141</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="148" t="s">
+        <v>164</v>
       </c>
       <c r="F29" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G29" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="156">
+        <v>156</v>
+      </c>
+      <c r="H29" s="155">
         <v>42168</v>
       </c>
       <c r="I29" s="143">
@@ -7311,8 +7278,8 @@
       <c r="J29" s="145">
         <v>2</v>
       </c>
-      <c r="K29" s="146">
-        <v>41979</v>
+      <c r="K29" s="144">
+        <v>42168</v>
       </c>
       <c r="L29" s="144">
         <v>42208</v>
@@ -7328,21 +7295,21 @@
         <v>18</v>
       </c>
       <c r="C30" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="153" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="149" t="s">
-        <v>179</v>
-      </c>
       <c r="F30" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G30" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="156">
+        <v>156</v>
+      </c>
+      <c r="H30" s="155">
         <v>42168</v>
       </c>
       <c r="I30" s="143">
@@ -7351,8 +7318,8 @@
       <c r="J30" s="145">
         <v>1.5</v>
       </c>
-      <c r="K30" s="146">
-        <v>41979</v>
+      <c r="K30" s="144">
+        <v>42168</v>
       </c>
       <c r="L30" s="144">
         <v>42208</v>
@@ -7368,21 +7335,21 @@
         <v>19</v>
       </c>
       <c r="C31" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="158" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="150" t="s">
         <v>192</v>
       </c>
-      <c r="E31" s="151" t="s">
-        <v>206</v>
-      </c>
       <c r="F31" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G31" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H31" s="156">
+        <v>156</v>
+      </c>
+      <c r="H31" s="155">
         <v>42168</v>
       </c>
       <c r="I31" s="143">
@@ -7391,8 +7358,8 @@
       <c r="J31" s="145">
         <v>1.5</v>
       </c>
-      <c r="K31" s="146">
-        <v>41979</v>
+      <c r="K31" s="144">
+        <v>42168</v>
       </c>
       <c r="L31" s="144">
         <v>42208</v>
@@ -7408,21 +7375,21 @@
         <v>20</v>
       </c>
       <c r="C32" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="158" t="s">
-        <v>192</v>
-      </c>
-      <c r="E32" s="151" t="s">
-        <v>207</v>
+        <v>141</v>
+      </c>
+      <c r="D32" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="150" t="s">
+        <v>193</v>
       </c>
       <c r="F32" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G32" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32" s="156">
+        <v>156</v>
+      </c>
+      <c r="H32" s="155">
         <v>42168</v>
       </c>
       <c r="I32" s="143">
@@ -7431,8 +7398,8 @@
       <c r="J32" s="145">
         <v>1</v>
       </c>
-      <c r="K32" s="146">
-        <v>41979</v>
+      <c r="K32" s="144">
+        <v>42168</v>
       </c>
       <c r="L32" s="144">
         <v>42208</v>
@@ -7448,21 +7415,21 @@
         <v>21</v>
       </c>
       <c r="C33" s="138" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="158" t="s">
-        <v>192</v>
-      </c>
-      <c r="E33" s="151" t="s">
-        <v>208</v>
+        <v>141</v>
+      </c>
+      <c r="D33" s="157" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="150" t="s">
+        <v>194</v>
       </c>
       <c r="F33" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G33" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H33" s="156">
+        <v>156</v>
+      </c>
+      <c r="H33" s="155">
         <v>42168</v>
       </c>
       <c r="I33" s="143">
@@ -7471,8 +7438,8 @@
       <c r="J33" s="145">
         <v>0.5</v>
       </c>
-      <c r="K33" s="146">
-        <v>41979</v>
+      <c r="K33" s="144">
+        <v>42168</v>
       </c>
       <c r="L33" s="144">
         <v>42208</v>
@@ -7487,32 +7454,32 @@
       <c r="B34" s="36">
         <v>22</v>
       </c>
-      <c r="C34" s="160" t="s">
+      <c r="C34" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="161" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="162" t="s">
-        <v>175</v>
-      </c>
-      <c r="F34" s="163" t="s">
-        <v>171</v>
-      </c>
-      <c r="G34" s="163" t="s">
-        <v>170</v>
-      </c>
-      <c r="H34" s="156">
+      <c r="E34" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="162" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" s="162" t="s">
+        <v>156</v>
+      </c>
+      <c r="H34" s="155">
         <v>42168</v>
       </c>
       <c r="I34" s="143">
         <v>42171</v>
       </c>
-      <c r="J34" s="164">
+      <c r="J34" s="163">
         <v>1.5</v>
       </c>
-      <c r="K34" s="165">
-        <v>41979</v>
+      <c r="K34" s="144">
+        <v>42168</v>
       </c>
       <c r="L34" s="144">
         <v>42208</v>
@@ -7528,21 +7495,21 @@
         <v>23</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="158" t="s">
-        <v>192</v>
+        <v>141</v>
+      </c>
+      <c r="D35" s="157" t="s">
+        <v>178</v>
       </c>
       <c r="E35" s="142" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F35" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G35" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H35" s="156">
+        <v>156</v>
+      </c>
+      <c r="H35" s="155">
         <v>42168</v>
       </c>
       <c r="I35" s="143">
@@ -7551,8 +7518,8 @@
       <c r="J35" s="145">
         <v>1.5</v>
       </c>
-      <c r="K35" s="146">
-        <v>41979</v>
+      <c r="K35" s="144">
+        <v>42168</v>
       </c>
       <c r="L35" s="144">
         <v>42208</v>
@@ -7566,21 +7533,21 @@
         <v>24</v>
       </c>
       <c r="C36" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="150" t="s">
-        <v>169</v>
-      </c>
       <c r="E36" s="142" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="F36" s="142" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="G36" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="H36" s="156">
+        <v>156</v>
+      </c>
+      <c r="H36" s="155">
         <v>42168</v>
       </c>
       <c r="I36" s="143">
@@ -7589,8 +7556,8 @@
       <c r="J36" s="145">
         <v>2</v>
       </c>
-      <c r="K36" s="146">
-        <v>41979</v>
+      <c r="K36" s="144">
+        <v>42168</v>
       </c>
       <c r="L36" s="144">
         <v>42208</v>
@@ -7692,17 +7659,17 @@
     <row r="45" spans="1:14" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="B3:N3"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="4">
@@ -7735,10 +7702,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="L12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" sqref="A1:N1"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -7802,16 +7769,16 @@
         <v>24</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>22</v>
@@ -7826,7 +7793,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>33</v>
@@ -7841,7 +7808,7 @@
         <v>28</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="24">
@@ -7856,7 +7823,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E5" s="109" t="str">
         <f>VLOOKUP(B5,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -7867,20 +7834,20 @@
         <v>BC</v>
       </c>
       <c r="G5" s="112" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="H5" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I5" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J5" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K5" s="113"/>
       <c r="L5" s="114">
-        <v>41835</v>
+        <v>42180</v>
       </c>
       <c r="M5" s="114">
         <v>41841</v>
@@ -7902,7 +7869,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D6" s="110" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E6" s="109" t="str">
         <f>VLOOKUP(B6,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -7913,20 +7880,20 @@
         <v>BC</v>
       </c>
       <c r="G6" s="112" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H6" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J6" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K6" s="113"/>
       <c r="L6" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M6" s="114">
         <v>41807</v>
@@ -7948,7 +7915,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E7" s="109" t="str">
         <f>VLOOKUP(B7,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -7959,20 +7926,20 @@
         <v>BC</v>
       </c>
       <c r="G7" s="112" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="H7" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I7" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J7" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K7" s="113"/>
       <c r="L7" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M7" s="114">
         <v>41807</v>
@@ -7986,93 +7953,93 @@
       <c r="A8" s="107">
         <v>4</v>
       </c>
-      <c r="B8" s="166">
+      <c r="B8" s="164">
         <v>3</v>
       </c>
-      <c r="C8" s="167" t="str">
+      <c r="C8" s="165" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="167" t="str">
+      <c r="D8" s="166" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="165" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$F$87,5,FALSE)</f>
         <v>YM</v>
       </c>
-      <c r="F8" s="167" t="str">
+      <c r="F8" s="165" t="str">
         <f>VLOOKUP(B8,Planificación!$B$13:$G$87,6,FALSE)</f>
         <v>BC</v>
       </c>
-      <c r="G8" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="170" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="170" t="s">
-        <v>171</v>
-      </c>
-      <c r="K8" s="171"/>
-      <c r="L8" s="172">
-        <v>41835</v>
-      </c>
-      <c r="M8" s="172">
+      <c r="G8" s="167" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="168" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="169"/>
+      <c r="L8" s="114">
+        <v>42180</v>
+      </c>
+      <c r="M8" s="170">
         <v>41841</v>
       </c>
-      <c r="N8" s="173">
+      <c r="N8" s="171">
         <v>1</v>
       </c>
-      <c r="O8" s="174"/>
+      <c r="O8" s="172"/>
     </row>
     <row r="9" spans="1:15" ht="24">
       <c r="A9" s="107">
         <v>5</v>
       </c>
-      <c r="B9" s="166">
+      <c r="B9" s="164">
         <v>3</v>
       </c>
-      <c r="C9" s="167" t="str">
+      <c r="C9" s="165" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="168" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="167" t="str">
+      <c r="D9" s="166" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="165" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$F$87,5,FALSE)</f>
         <v>YM</v>
       </c>
-      <c r="F9" s="167" t="str">
+      <c r="F9" s="165" t="str">
         <f>VLOOKUP(B9,Planificación!$B$13:$G$87,6,FALSE)</f>
         <v>BC</v>
       </c>
-      <c r="G9" s="169" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="170" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="170" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="171"/>
-      <c r="L9" s="172">
-        <v>41835</v>
-      </c>
-      <c r="M9" s="172">
+      <c r="G9" s="167" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" s="168" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="168" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="169"/>
+      <c r="L9" s="114">
+        <v>42180</v>
+      </c>
+      <c r="M9" s="170">
         <v>41841</v>
       </c>
-      <c r="N9" s="173">
+      <c r="N9" s="171">
         <v>1</v>
       </c>
-      <c r="O9" s="174"/>
+      <c r="O9" s="172"/>
     </row>
     <row r="10" spans="1:15" ht="24">
       <c r="A10" s="107">
@@ -8086,7 +8053,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D10" s="110" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E10" s="109" t="str">
         <f>VLOOKUP(B10,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8097,20 +8064,20 @@
         <v>BC</v>
       </c>
       <c r="G10" s="112" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="H10" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J10" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K10" s="113"/>
       <c r="L10" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M10" s="114">
         <v>41807</v>
@@ -8128,32 +8095,32 @@
         <v>2</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D11" s="110" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="E11" s="109" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F11" s="109" t="s">
-        <v>170</v>
-      </c>
-      <c r="G11" s="159" t="s">
-        <v>219</v>
+        <v>156</v>
+      </c>
+      <c r="G11" s="158" t="s">
+        <v>205</v>
       </c>
       <c r="H11" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I11" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J11" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K11" s="113"/>
       <c r="L11" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M11" s="114">
         <v>41807</v>
@@ -8171,35 +8138,35 @@
         <v>2</v>
       </c>
       <c r="C12" s="109" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E12" s="109" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F12" s="109" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G12" s="112" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H12" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I12" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J12" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K12" s="113"/>
       <c r="L12" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M12" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N12" s="115">
         <v>1</v>
@@ -8218,7 +8185,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E13" s="109" t="str">
         <f>VLOOKUP(B13,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8229,74 +8196,74 @@
         <v>BC</v>
       </c>
       <c r="G13" s="112" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="H13" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I13" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J13" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K13" s="113"/>
       <c r="L13" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M13" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N13" s="115">
         <v>1</v>
       </c>
       <c r="O13" s="128"/>
     </row>
-    <row r="14" spans="1:15" s="175" customFormat="1" ht="24">
+    <row r="14" spans="1:15" s="173" customFormat="1" ht="24">
       <c r="A14" s="107">
         <v>10</v>
       </c>
-      <c r="B14" s="166">
+      <c r="B14" s="164">
         <v>3</v>
       </c>
-      <c r="C14" s="167" t="str">
+      <c r="C14" s="165" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$E$87,2,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="168" t="s">
-        <v>221</v>
-      </c>
-      <c r="E14" s="167" t="str">
+      <c r="D14" s="166" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="165" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$F$87,5,FALSE)</f>
         <v>YM</v>
       </c>
-      <c r="F14" s="167" t="str">
+      <c r="F14" s="165" t="str">
         <f>VLOOKUP(B14,Planificación!$B$13:$G$87,6,FALSE)</f>
         <v>BC</v>
       </c>
-      <c r="G14" s="176" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="170" t="s">
-        <v>152</v>
-      </c>
-      <c r="I14" s="170" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="170" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="171"/>
-      <c r="L14" s="172">
-        <v>41835</v>
-      </c>
-      <c r="M14" s="172">
-        <v>41841</v>
-      </c>
-      <c r="N14" s="173">
+      <c r="G14" s="174" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="168" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="168" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="169"/>
+      <c r="L14" s="114">
+        <v>42180</v>
+      </c>
+      <c r="M14" s="114">
+        <v>42210</v>
+      </c>
+      <c r="N14" s="171">
         <v>1</v>
       </c>
-      <c r="O14" s="174"/>
+      <c r="O14" s="172"/>
     </row>
     <row r="15" spans="1:15" ht="24">
       <c r="A15" s="107">
@@ -8310,7 +8277,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E15" s="109" t="str">
         <f>VLOOKUP(B15,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8321,23 +8288,23 @@
         <v>BC</v>
       </c>
       <c r="G15" s="112" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H15" s="111" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="I15" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J15" s="111" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="K15" s="113"/>
       <c r="L15" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M15" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N15" s="115">
         <v>1</v>
@@ -8356,7 +8323,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D16" s="110" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="E16" s="109" t="str">
         <f>VLOOKUP(B16,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8367,23 +8334,23 @@
         <v>BC</v>
       </c>
       <c r="G16" s="112" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H16" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I16" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J16" s="111" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K16" s="113"/>
       <c r="L16" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M16" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N16" s="115">
         <v>1</v>
@@ -8402,7 +8369,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D17" s="110" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E17" s="109" t="str">
         <f>VLOOKUP(B17,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8413,23 +8380,23 @@
         <v>BC</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H17" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I17" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J17" s="111" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="K17" s="113"/>
       <c r="L17" s="114">
-        <v>41814</v>
+        <v>42180</v>
       </c>
       <c r="M17" s="114">
-        <v>41816</v>
+        <v>42210</v>
       </c>
       <c r="N17" s="115">
         <v>1</v>
@@ -8448,7 +8415,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E18" s="109" t="str">
         <f>VLOOKUP(B18,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8459,23 +8426,23 @@
         <v>BC</v>
       </c>
       <c r="G18" s="112" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="H18" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I18" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J18" s="111" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="K18" s="113"/>
       <c r="L18" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M18" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N18" s="115">
         <v>1</v>
@@ -8494,7 +8461,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D19" s="110" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E19" s="109" t="str">
         <f>VLOOKUP(B19,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8505,23 +8472,23 @@
         <v>BC</v>
       </c>
       <c r="G19" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H19" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I19" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J19" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K19" s="113"/>
       <c r="L19" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M19" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N19" s="115">
         <v>2</v>
@@ -8540,7 +8507,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="E20" s="109" t="str">
         <f>VLOOKUP(B20,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8551,23 +8518,23 @@
         <v>BC</v>
       </c>
       <c r="G20" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H20" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I20" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J20" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K20" s="113"/>
       <c r="L20" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M20" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N20" s="115">
         <v>3</v>
@@ -8586,7 +8553,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D21" s="110" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E21" s="109" t="str">
         <f>VLOOKUP(B21,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8597,23 +8564,23 @@
         <v>BC</v>
       </c>
       <c r="G21" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H21" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I21" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J21" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K21" s="113"/>
       <c r="L21" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M21" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N21" s="115">
         <v>4</v>
@@ -8632,7 +8599,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D22" s="110" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E22" s="109" t="str">
         <f>VLOOKUP(B22,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8643,23 +8610,23 @@
         <v>BC</v>
       </c>
       <c r="G22" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H22" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I22" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J22" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K22" s="113"/>
       <c r="L22" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M22" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N22" s="115">
         <v>5</v>
@@ -8678,7 +8645,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="E23" s="109" t="str">
         <f>VLOOKUP(B23,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8689,23 +8656,23 @@
         <v>BC</v>
       </c>
       <c r="G23" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H23" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I23" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J23" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K23" s="113"/>
       <c r="L23" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M23" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N23" s="115">
         <v>6</v>
@@ -8724,7 +8691,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="E24" s="109" t="str">
         <f>VLOOKUP(B24,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8735,23 +8702,23 @@
         <v>BC</v>
       </c>
       <c r="G24" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H24" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I24" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J24" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K24" s="113"/>
       <c r="L24" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M24" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N24" s="115">
         <v>7</v>
@@ -8770,7 +8737,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="E25" s="109" t="str">
         <f>VLOOKUP(B25,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8781,23 +8748,23 @@
         <v>BC</v>
       </c>
       <c r="G25" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H25" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I25" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J25" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K25" s="113"/>
       <c r="L25" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M25" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N25" s="115">
         <v>8</v>
@@ -8816,7 +8783,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D26" s="110" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E26" s="109" t="str">
         <f>VLOOKUP(B26,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8827,23 +8794,23 @@
         <v>BC</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H26" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I26" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J26" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K26" s="113"/>
       <c r="L26" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M26" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N26" s="115">
         <v>9</v>
@@ -8862,7 +8829,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E27" s="109" t="str">
         <f>VLOOKUP(B27,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8873,23 +8840,23 @@
         <v>BC</v>
       </c>
       <c r="G27" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H27" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I27" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J27" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K27" s="113"/>
       <c r="L27" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M27" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N27" s="115">
         <v>10</v>
@@ -8908,7 +8875,7 @@
         <v>Desarrollo de Sistemas</v>
       </c>
       <c r="D28" s="110" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E28" s="109" t="str">
         <f>VLOOKUP(B28,Planificación!$B$13:$F$87,5,FALSE)</f>
@@ -8919,23 +8886,23 @@
         <v>BC</v>
       </c>
       <c r="G28" s="112" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="H28" s="111" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="I28" s="111" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="J28" s="111" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K28" s="113"/>
       <c r="L28" s="114">
-        <v>41802</v>
+        <v>42180</v>
       </c>
       <c r="M28" s="114">
-        <v>41807</v>
+        <v>42210</v>
       </c>
       <c r="N28" s="115">
         <v>11</v>
@@ -9169,8 +9136,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:I4"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9185,82 +9152,82 @@
   <sheetData>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="13"/>
-      <c r="C2" s="231" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="231"/>
-      <c r="J2" s="231"/>
-      <c r="K2" s="231"/>
+      <c r="C2" s="218" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="34.5" customHeight="1">
       <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1">
       <c r="A4" s="14"/>
-      <c r="C4" s="232" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="232"/>
-      <c r="E4" s="221" t="str">
+      <c r="C4" s="219" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="219"/>
+      <c r="E4" s="220" t="str">
         <f>IF(Planificación!D6&lt;&gt;"",Planificación!D6,"")</f>
         <v>Billy Caballero</v>
       </c>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="222"/>
-      <c r="I4" s="223"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="221"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1">
       <c r="A5" s="14"/>
-      <c r="C5" s="233" t="str">
+      <c r="C5" s="223" t="str">
         <f>Planificación!B7</f>
         <v>Gestor de Calidad</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="221" t="str">
+      <c r="D5" s="224"/>
+      <c r="E5" s="220" t="str">
         <f>IF(Planificación!D7&lt;&gt;"",Planificación!D7,"")</f>
         <v>Christian Tamayo</v>
       </c>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="223"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="222"/>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1">
       <c r="A6" s="14"/>
-      <c r="C6" s="219" t="s">
+      <c r="C6" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="220"/>
-      <c r="E6" s="221" t="str">
+      <c r="D6" s="227"/>
+      <c r="E6" s="220" t="str">
         <f>IF(Planificación!D8&lt;&gt;"",Planificación!D8,"")</f>
         <v>Creative CheeseGame</v>
       </c>
-      <c r="F6" s="222"/>
-      <c r="G6" s="222"/>
-      <c r="H6" s="222"/>
-      <c r="I6" s="223"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="14"/>
-      <c r="C7" s="225" t="s">
+      <c r="C7" s="229" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="225"/>
-      <c r="E7" s="226">
+      <c r="D7" s="229"/>
+      <c r="E7" s="230">
         <f>IF(Planificación!D9&lt;&gt;"",Planificación!D9,"")</f>
         <v>42168</v>
       </c>
-      <c r="F7" s="227"/>
-      <c r="G7" s="228" t="s">
+      <c r="F7" s="231"/>
+      <c r="G7" s="232" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="229"/>
+      <c r="H7" s="233"/>
       <c r="I7" s="116">
         <f>IF(Planificación!F9&lt;&gt;"",Planificación!F9,"")</f>
         <v>42171</v>
@@ -9268,24 +9235,24 @@
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1">
       <c r="A8" s="14"/>
-      <c r="C8" s="225" t="s">
+      <c r="C8" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="230"/>
-      <c r="E8" s="221" t="str">
+      <c r="D8" s="234"/>
+      <c r="E8" s="220" t="str">
         <f>IF(Planificación!D10&lt;&gt;"",Planificación!D10,"")</f>
         <v/>
       </c>
-      <c r="F8" s="222"/>
-      <c r="G8" s="222"/>
-      <c r="H8" s="222"/>
-      <c r="I8" s="223"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="222"/>
     </row>
     <row r="13" spans="1:11" ht="15">
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="228" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="224"/>
+      <c r="D13" s="228"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -9298,8 +9265,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="117">
-        <f>COUNTA(Planificación!C13:C40)</f>
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
@@ -9307,8 +9273,7 @@
         <v>23</v>
       </c>
       <c r="D15" s="117">
-        <f>D14-D16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9316,8 +9281,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="139">
-        <f>COUNTA(Planificación!L13:L39)</f>
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="3:5">
@@ -9326,7 +9290,7 @@
       </c>
       <c r="D17" s="118">
         <f>(D16/(IF(D14=0,1,D14)))</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18" spans="3:5">
@@ -9335,7 +9299,7 @@
       </c>
       <c r="D18" s="118">
         <f>1-D17</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -9369,10 +9333,10 @@
       <c r="E24" s="12"/>
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
-      <c r="C26" s="218" t="s">
+      <c r="C26" s="225" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="218"/>
+      <c r="D26" s="225"/>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="34" t="s">
@@ -9384,7 +9348,7 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="120" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D28" s="140">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C28)</f>
@@ -9393,7 +9357,7 @@
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="120" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="D29" s="140">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C29)</f>
@@ -9402,7 +9366,7 @@
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="120" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D30" s="140">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C30)</f>
@@ -9429,7 +9393,7 @@
     </row>
     <row r="33" spans="3:4">
       <c r="C33" s="120" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D33" s="140">
         <f>COUNTIF('Seguimiento de NC'!$H$5:$H$141,C33)</f>
@@ -9446,14 +9410,14 @@
       </c>
     </row>
     <row r="40" spans="3:4" ht="15">
-      <c r="C40" s="218" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="218"/>
+      <c r="C40" s="225" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="225"/>
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="121" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D41" s="140">
         <f>Planificación!J41</f>
@@ -9462,7 +9426,7 @@
     </row>
     <row r="42" spans="3:4">
       <c r="C42" s="121" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D42" s="140">
         <f>Planificación!M41</f>
@@ -9479,10 +9443,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="218" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="218"/>
+      <c r="C57" s="225" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" s="225"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="34" t="s">
@@ -9494,7 +9458,7 @@
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="123" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D59" s="140">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C59)</f>
@@ -9503,7 +9467,7 @@
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="123" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D60" s="140">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C60)</f>
@@ -9512,7 +9476,7 @@
     </row>
     <row r="61" spans="3:4">
       <c r="C61" s="123" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D61" s="140">
         <f>COUNTIF('Seguimiento de NC'!$I$5:$I$141,C61)</f>
@@ -9530,11 +9494,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:I5"/>
     <mergeCell ref="C57:D57"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:I6"/>
@@ -9546,6 +9505,11 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:I5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9554,7 +9518,7 @@
     <oddFooter xml:space="preserve">&amp;LRev. 1.0&amp;CFecha Efectiva: 16/06/2008&amp;RPágina &amp;P de &amp;N </oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D14:D15 D17:D18" unlockedFormula="1"/>
+    <ignoredError sqref="D17:D18" unlockedFormula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -9586,120 +9550,120 @@
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="122" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D2" s="122" t="s">
         <v>32</v>
       </c>
       <c r="F2" s="122" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H2" s="122" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="J2" s="122" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="K2" s="122" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="13.5" thickBot="1">
       <c r="A3" s="132"/>
       <c r="B3" s="132"/>
       <c r="D3" s="123" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F3" s="123" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H3" s="123" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J3" s="235" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="K3" s="136" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="236" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B4" s="133" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D4" s="123" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F4" s="123" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="H4" s="123" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="J4" s="235"/>
       <c r="K4" s="136" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="237"/>
       <c r="B5" s="134" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D5" s="123" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F5" s="123" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="H5" s="123" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J5" s="235"/>
       <c r="K5" s="136" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="237"/>
       <c r="B6" s="134" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F6" s="123" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H6" s="123"/>
       <c r="J6" s="235"/>
       <c r="K6" s="136" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="237"/>
       <c r="B7" s="134" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F7" s="123" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="123"/>
       <c r="J7" s="235" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K7" s="136" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="237"/>
       <c r="B8" s="134" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F8" s="123" t="s">
         <v>35</v>
@@ -9707,7 +9671,7 @@
       <c r="H8" s="123"/>
       <c r="J8" s="235"/>
       <c r="K8" s="136" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9715,7 +9679,7 @@
       <c r="B9" s="137"/>
       <c r="J9" s="235"/>
       <c r="K9" s="136" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9724,7 +9688,7 @@
       <c r="F10" s="129"/>
       <c r="J10" s="235"/>
       <c r="K10" s="136" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9733,7 +9697,7 @@
       <c r="F11" s="129"/>
       <c r="J11" s="235"/>
       <c r="K11" s="136" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
@@ -9742,195 +9706,195 @@
       <c r="F12" s="129"/>
       <c r="J12" s="235"/>
       <c r="K12" s="136" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="J13" s="235"/>
       <c r="K13" s="136" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="J14" s="235" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="K14" s="136" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="J15" s="235"/>
       <c r="K15" s="136" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="J16" s="235"/>
       <c r="K16" s="136" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="10:11">
       <c r="J17" s="235"/>
       <c r="K17" s="136" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="10:11">
       <c r="J18" s="235"/>
       <c r="K18" s="136" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="10:11">
       <c r="J19" s="235"/>
       <c r="K19" s="136" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="10:11">
       <c r="J20" s="235"/>
       <c r="K20" s="136" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="10:11">
       <c r="J21" s="235"/>
       <c r="K21" s="136" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="10:11">
       <c r="J22" s="235"/>
       <c r="K22" s="136" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="10:11">
       <c r="J23" s="235"/>
       <c r="K23" s="136" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="10:11">
       <c r="J24" s="235" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K24" s="136" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="10:11">
       <c r="J25" s="235"/>
       <c r="K25" s="136" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="10:11">
       <c r="J26" s="235"/>
       <c r="K26" s="136" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="10:11">
       <c r="J27" s="235"/>
       <c r="K27" s="136" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="10:11">
       <c r="J28" s="235"/>
       <c r="K28" s="136" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="10:11">
       <c r="J29" s="235"/>
       <c r="K29" s="136" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="10:11">
       <c r="J30" s="235"/>
       <c r="K30" s="136" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="10:11">
       <c r="J31" s="235" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="K31" s="136" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="10:11">
       <c r="J32" s="235"/>
       <c r="K32" s="136" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="10:11">
       <c r="J33" s="235"/>
       <c r="K33" s="136" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="10:11">
       <c r="J34" s="235"/>
       <c r="K34" s="136" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="10:11">
       <c r="J35" s="235"/>
       <c r="K35" s="136" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="10:11">
       <c r="J36" s="235" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="K36" s="136" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="10:11">
       <c r="J37" s="235"/>
       <c r="K37" s="136" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="10:11">
       <c r="J38" s="235"/>
       <c r="K38" s="136" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="10:11">
       <c r="J39" s="235"/>
       <c r="K39" s="136" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="10:11">
       <c r="J40" s="235"/>
       <c r="K40" s="136" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="10:11">
       <c r="J41" s="235"/>
       <c r="K41" s="136" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="10:11">
       <c r="J42" s="235"/>
       <c r="K42" s="136" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
